--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value827.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value827.xlsx
@@ -351,7 +351,7 @@
         <v>0.7931444029463688</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>3.145035523189157</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value827.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value827.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7931444029463688</v>
+        <v>1.491361618041992</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>3.787102222442627</v>
       </c>
       <c r="C1">
-        <v>3.145035523189157</v>
+        <v>1.72264575958252</v>
       </c>
       <c r="D1">
-        <v>1.823303870345745</v>
+        <v>1.157914161682129</v>
       </c>
       <c r="E1">
-        <v>1.41830466896894</v>
+        <v>0.749509871006012</v>
       </c>
     </row>
   </sheetData>
